--- a/【小轮子】/【20180803】/rain_week_old.xlsx
+++ b/【小轮子】/【20180803】/rain_week_old.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\study\2018暑假\智能汽车课题组\For Weijian_20180704\代码\【小轮子】\【20180803】\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7CC42CE-32BC-4BD3-AC3A-6F3EC2EF6B92}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EE04D2B-2497-48A0-8F9A-8460D07CBE81}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="6015" xr2:uid="{F057AA15-C94E-4C30-BF28-FF6370611BA3}"/>
   </bookViews>
@@ -383,10 +383,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65ECF05A-210D-448F-ADBC-3B3732014EC8}">
-  <dimension ref="A1:E156"/>
+  <dimension ref="A1:E157"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E152"/>
+      <selection sqref="A1:E157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -869,7 +869,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -886,7 +886,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -1107,7 +1107,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -1141,7 +1141,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1617,7 +1617,7 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -1668,7 +1668,7 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1770,7 +1770,7 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82">
-        <v>0.14285714285714285</v>
+        <v>0</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -1821,7 +1821,7 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85">
-        <v>0</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -2116,7 +2116,7 @@
         <v>0</v>
       </c>
       <c r="C102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D102">
         <v>0</v>
@@ -2161,13 +2161,13 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="B105">
         <v>0</v>
       </c>
       <c r="C105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D105">
         <v>0</v>
@@ -2212,7 +2212,7 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="B108">
         <v>0</v>
@@ -2314,7 +2314,7 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="B114">
         <v>0</v>
@@ -2399,7 +2399,7 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="B119">
         <v>0</v>
@@ -3040,6 +3040,23 @@
         <v>0</v>
       </c>
       <c r="E156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A157">
+        <v>0</v>
+      </c>
+      <c r="B157">
+        <v>0</v>
+      </c>
+      <c r="C157">
+        <v>0</v>
+      </c>
+      <c r="D157">
+        <v>0</v>
+      </c>
+      <c r="E157">
         <v>0</v>
       </c>
     </row>
